--- a/Информация/all.xlsx
+++ b/Информация/all.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS VivoBook S15 S5\Desktop\Homa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4540c62fe8c17ce9/Документы/map vs/Информация/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7804C0-82E5-4329-A4CF-0F80F7222BAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{6A7804C0-82E5-4329-A4CF-0F80F7222BAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{50D1200C-9504-4C03-B23B-D236E35D7AEE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ветеринарные клиники" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="408">
   <si>
     <t>Название</t>
   </si>
@@ -618,12 +618,6 @@
     <t>38.932746</t>
   </si>
   <si>
-    <t>пр. 2-й Стасова, 113/3</t>
-  </si>
-  <si>
-    <t>телефон: 8 (938) 454-67-84</t>
-  </si>
-  <si>
     <t>45.141613</t>
   </si>
   <si>
@@ -633,39 +627,18 @@
     <t>Зоомагазин</t>
   </si>
   <si>
-    <t>пр. 2-й Стасова, 113/2</t>
-  </si>
-  <si>
-    <t>телефон: 8 (938) 454-67-85</t>
-  </si>
-  <si>
     <t>45.127046</t>
   </si>
   <si>
     <t>39.000044</t>
   </si>
   <si>
-    <t>телефон: 8 (938) 454-67-86</t>
-  </si>
-  <si>
     <t>45.101701</t>
   </si>
   <si>
     <t>38.983343</t>
   </si>
   <si>
-    <t>пр. 2-й Стасова, 113/0</t>
-  </si>
-  <si>
-    <t>телефон: 8 (938) 454-67-87</t>
-  </si>
-  <si>
-    <t>45.043880</t>
-  </si>
-  <si>
-    <t>38.981609</t>
-  </si>
-  <si>
     <t>ул. Куйбышева, 2</t>
   </si>
   <si>
@@ -885,24 +858,422 @@
     <t>Ветеринарный Центр"</t>
   </si>
   <si>
-    <t>Зоомагазин Природа"</t>
-  </si>
-  <si>
-    <t>Зоомагазин"</t>
-  </si>
-  <si>
     <t>Центр Помощи Животным"</t>
+  </si>
+  <si>
+    <t>ул. Душистая, 41</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>8 (918) 358-49-42</t>
+  </si>
+  <si>
+    <t>ул. Атарбекова, 7</t>
+  </si>
+  <si>
+    <t>8 (861) 203-45-49</t>
+  </si>
+  <si>
+    <t>Зоомагазин Природа</t>
+  </si>
+  <si>
+    <t>ул. Дзержинского, 100</t>
+  </si>
+  <si>
+    <t>8 (861) 248-28-14</t>
+  </si>
+  <si>
+    <t>8 (938) 454-67-88</t>
+  </si>
+  <si>
+    <t>ул. ш. Нефтяников, 42</t>
+  </si>
+  <si>
+    <t>8 (800) 770-00-22</t>
+  </si>
+  <si>
+    <t>45.071434</t>
+  </si>
+  <si>
+    <t>38.983955</t>
+  </si>
+  <si>
+    <t>ул. Красная, 176лит1</t>
+  </si>
+  <si>
+    <t>8 (800) 555-22-11</t>
+  </si>
+  <si>
+    <t>45.046871</t>
+  </si>
+  <si>
+    <t>38.980029</t>
+  </si>
+  <si>
+    <t>Зоомагазин Бетховен"</t>
+  </si>
+  <si>
+    <t>Зоомагазин Четыре Лапы"</t>
+  </si>
+  <si>
+    <t>ул. ш. Нефтяников, 30</t>
+  </si>
+  <si>
+    <t>ул. имени 40-летия Победы, 146</t>
+  </si>
+  <si>
+    <t>ул. Восточно-Кругликовская, 18/1</t>
+  </si>
+  <si>
+    <t>ул. Северная, 297</t>
+  </si>
+  <si>
+    <t>ул. Чапаева, 88</t>
+  </si>
+  <si>
+    <t>ул. Ставропольская, 131</t>
+  </si>
+  <si>
+    <t>ул. Митрофана Седина, 11</t>
+  </si>
+  <si>
+    <t>ул. Красная, 137</t>
+  </si>
+  <si>
+    <t>ул. Красная, 164</t>
+  </si>
+  <si>
+    <t>ул. Красная, 21</t>
+  </si>
+  <si>
+    <t>ул. Поставая, 55</t>
+  </si>
+  <si>
+    <t>ул. Ставропольская, 224</t>
+  </si>
+  <si>
+    <t>Пиццерия Каморра</t>
+  </si>
+  <si>
+    <t>ул. Красная, 90</t>
+  </si>
+  <si>
+    <t>ул. Красная, 78</t>
+  </si>
+  <si>
+    <t>ул. Красная 176/3</t>
+  </si>
+  <si>
+    <t>ул. Леваневского, 187</t>
+  </si>
+  <si>
+    <t>ул. Красная, 98</t>
+  </si>
+  <si>
+    <t>ул. Мира, 40</t>
+  </si>
+  <si>
+    <t>ул. Красная, 20</t>
+  </si>
+  <si>
+    <t>ул. Красноармейская, 58</t>
+  </si>
+  <si>
+    <t>ул. Красноармейская, 11</t>
+  </si>
+  <si>
+    <t>ул. Красная, 83</t>
+  </si>
+  <si>
+    <t>не указан</t>
+  </si>
+  <si>
+    <t>45.068023</t>
+  </si>
+  <si>
+    <t>38.982573</t>
+  </si>
+  <si>
+    <t>Кафе</t>
+  </si>
+  <si>
+    <t>45.055251</t>
+  </si>
+  <si>
+    <t>39.015383</t>
+  </si>
+  <si>
+    <t>8 (928) 849-10-50</t>
+  </si>
+  <si>
+    <t>45.046555</t>
+  </si>
+  <si>
+    <t>39.028746</t>
+  </si>
+  <si>
+    <t>8 (918) 141-26-32</t>
+  </si>
+  <si>
+    <t>45.040370</t>
+  </si>
+  <si>
+    <t>38.978979</t>
+  </si>
+  <si>
+    <t>45.029916</t>
+  </si>
+  <si>
+    <t>38.971584</t>
+  </si>
+  <si>
+    <t>45.020570</t>
+  </si>
+  <si>
+    <t>39.024702</t>
+  </si>
+  <si>
+    <t>45.015671</t>
+  </si>
+  <si>
+    <t>38.974100</t>
+  </si>
+  <si>
+    <t>8 (900) 292-22-27</t>
+  </si>
+  <si>
+    <t>45.044191</t>
+  </si>
+  <si>
+    <t>38.976536</t>
+  </si>
+  <si>
+    <t>45.040674</t>
+  </si>
+  <si>
+    <t>38.976759</t>
+  </si>
+  <si>
+    <t>45.019927</t>
+  </si>
+  <si>
+    <t>38.968630</t>
+  </si>
+  <si>
+    <t>8 (961) 511-81-58</t>
+  </si>
+  <si>
+    <t>45.014214</t>
+  </si>
+  <si>
+    <t>38.971875</t>
+  </si>
+  <si>
+    <t>45.020601</t>
+  </si>
+  <si>
+    <t>39.024392</t>
+  </si>
+  <si>
+    <t>45.018789</t>
+  </si>
+  <si>
+    <t>39.029925</t>
+  </si>
+  <si>
+    <t>8 (861) 251-69-97</t>
+  </si>
+  <si>
+    <t>45.030973</t>
+  </si>
+  <si>
+    <t>38.972987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пиццерия </t>
+  </si>
+  <si>
+    <t>8 (861) 259-51-75</t>
+  </si>
+  <si>
+    <t>45.029572</t>
+  </si>
+  <si>
+    <t>38.972354</t>
+  </si>
+  <si>
+    <t>8 (964) 900-87-56</t>
+  </si>
+  <si>
+    <t>45.046362</t>
+  </si>
+  <si>
+    <t>38.981584</t>
+  </si>
+  <si>
+    <t>45.040316</t>
+  </si>
+  <si>
+    <t>38.987013</t>
+  </si>
+  <si>
+    <t>8 (988) 081-42-73</t>
+  </si>
+  <si>
+    <t>45.031818</t>
+  </si>
+  <si>
+    <t>38.973062</t>
+  </si>
+  <si>
+    <t>45.020851</t>
+  </si>
+  <si>
+    <t>38.968376</t>
+  </si>
+  <si>
+    <t>45.019054</t>
+  </si>
+  <si>
+    <t>38.968764</t>
+  </si>
+  <si>
+    <t>8 (918) 111-19-99</t>
+  </si>
+  <si>
+    <t>45.025896</t>
+  </si>
+  <si>
+    <t>38.973283</t>
+  </si>
+  <si>
+    <t>8 (988) 464-44-11</t>
+  </si>
+  <si>
+    <t>45.018401</t>
+  </si>
+  <si>
+    <t>38.970371</t>
+  </si>
+  <si>
+    <t>8 (918) 180-33-30</t>
+  </si>
+  <si>
+    <t>45.031608</t>
+  </si>
+  <si>
+    <t>38.972713</t>
+  </si>
+  <si>
+    <t>8 (988) 241-06-06</t>
+  </si>
+  <si>
+    <t>45.019016</t>
+  </si>
+  <si>
+    <t>38.968689</t>
+  </si>
+  <si>
+    <t>Бар</t>
+  </si>
+  <si>
+    <t>Кафе Зацепи кофе"</t>
+  </si>
+  <si>
+    <t>Кафе Библиотека кофе"</t>
+  </si>
+  <si>
+    <t>Кафе Hrum"</t>
+  </si>
+  <si>
+    <t>Кафе Жаровня"</t>
+  </si>
+  <si>
+    <t>Кафе Tutto gelato"</t>
+  </si>
+  <si>
+    <t>Кафе Кулинаристика"</t>
+  </si>
+  <si>
+    <t>Кафе Past Perfect"</t>
+  </si>
+  <si>
+    <t>Бар Культура"</t>
+  </si>
+  <si>
+    <t>ул. Постовая, 34</t>
+  </si>
+  <si>
+    <t>ул. Захарова</t>
+  </si>
+  <si>
+    <t>ул. Колхозня, 86</t>
+  </si>
+  <si>
+    <t>ул. Разведчика Леонова</t>
+  </si>
+  <si>
+    <t>45.012585</t>
+  </si>
+  <si>
+    <t>38.971470</t>
+  </si>
+  <si>
+    <t>Парк</t>
+  </si>
+  <si>
+    <t>45.006934</t>
+  </si>
+  <si>
+    <t>38.967289</t>
+  </si>
+  <si>
+    <t>8 (861) 257-04-49</t>
+  </si>
+  <si>
+    <t>45.056411</t>
+  </si>
+  <si>
+    <t>38.994312</t>
+  </si>
+  <si>
+    <t>45.041186</t>
+  </si>
+  <si>
+    <t>39.032093</t>
+  </si>
+  <si>
+    <t>Городской сад"</t>
+  </si>
+  <si>
+    <t>Сквер имени Г.М. Седина"</t>
+  </si>
+  <si>
+    <t>Чистяковская роща"</t>
+  </si>
+  <si>
+    <t>Парк Краснодар"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
@@ -927,8 +1298,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1204,10 +1576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,7 +1618,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1273,7 +1645,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -1300,7 +1672,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -1327,7 +1699,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -1354,7 +1726,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -1381,7 +1753,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
@@ -1408,7 +1780,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -1435,7 +1807,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
@@ -1462,7 +1834,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
@@ -1489,7 +1861,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B11" t="s">
         <v>44</v>
@@ -1516,7 +1888,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B12" t="s">
         <v>48</v>
@@ -1543,7 +1915,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -1570,7 +1942,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
@@ -1597,7 +1969,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B15" t="s">
         <v>60</v>
@@ -1624,7 +1996,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -1651,7 +2023,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
@@ -1678,7 +2050,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
@@ -1705,7 +2077,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -1732,7 +2104,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B20" t="s">
         <v>80</v>
@@ -1759,7 +2131,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -1786,7 +2158,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B22" t="s">
         <v>88</v>
@@ -1813,7 +2185,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B23" t="s">
         <v>92</v>
@@ -1840,7 +2212,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s">
         <v>96</v>
@@ -1867,7 +2239,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s">
         <v>100</v>
@@ -1894,7 +2266,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s">
         <v>104</v>
@@ -1921,7 +2293,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B27" t="s">
         <v>108</v>
@@ -1948,7 +2320,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B28" t="s">
         <v>112</v>
@@ -1975,7 +2347,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s">
         <v>116</v>
@@ -2002,7 +2374,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s">
         <v>120</v>
@@ -2029,7 +2401,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B31" t="s">
         <v>124</v>
@@ -2056,7 +2428,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s">
         <v>128</v>
@@ -2083,7 +2455,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B33" t="s">
         <v>132</v>
@@ -2110,7 +2482,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B34" t="s">
         <v>136</v>
@@ -2137,7 +2509,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B35" t="s">
         <v>140</v>
@@ -2164,7 +2536,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B36" t="s">
         <v>144</v>
@@ -2191,7 +2563,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B37" t="s">
         <v>148</v>
@@ -2218,7 +2590,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B38" t="s">
         <v>152</v>
@@ -2245,7 +2617,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B39" t="s">
         <v>156</v>
@@ -2272,7 +2644,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B40" t="s">
         <v>160</v>
@@ -2299,7 +2671,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B41" t="s">
         <v>164</v>
@@ -2326,7 +2698,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B42" t="s">
         <v>168</v>
@@ -2353,7 +2725,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B43" t="s">
         <v>172</v>
@@ -2380,7 +2752,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B44" t="s">
         <v>176</v>
@@ -2407,7 +2779,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B45" t="s">
         <v>180</v>
@@ -2434,7 +2806,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B46" t="s">
         <v>76</v>
@@ -2461,7 +2833,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B47" t="s">
         <v>187</v>
@@ -2488,7 +2860,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B48" t="s">
         <v>191</v>
@@ -2514,53 +2886,53 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>268</v>
+      <c r="A49" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="B49" t="s">
+        <v>276</v>
+      </c>
+      <c r="C49" t="s">
+        <v>277</v>
+      </c>
+      <c r="D49" t="s">
+        <v>278</v>
+      </c>
+      <c r="E49" t="s">
         <v>195</v>
       </c>
-      <c r="C49">
-        <v>350007</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
         <v>196</v>
       </c>
-      <c r="E49" t="s">
+      <c r="G49" t="s">
         <v>197</v>
       </c>
-      <c r="F49" t="s">
+      <c r="H49" t="str">
+        <f t="shared" si="0"/>
+        <v>"Зоомагазин Bonnifacii.ru"</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B50" t="s">
+        <v>279</v>
+      </c>
+      <c r="C50" t="s">
+        <v>277</v>
+      </c>
+      <c r="D50" t="s">
+        <v>280</v>
+      </c>
+      <c r="E50" t="s">
         <v>198</v>
       </c>
-      <c r="G49" t="s">
+      <c r="F50" t="s">
         <v>199</v>
       </c>
-      <c r="H49" t="str">
-        <f t="shared" si="0"/>
-        <v>"Зоомагазин Bonnifacii.ru"</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>269</v>
-      </c>
-      <c r="B50" t="s">
-        <v>200</v>
-      </c>
-      <c r="C50">
-        <v>350008</v>
-      </c>
-      <c r="D50" t="s">
-        <v>201</v>
-      </c>
-      <c r="E50" t="s">
-        <v>202</v>
-      </c>
-      <c r="F50" t="s">
-        <v>203</v>
-      </c>
       <c r="G50" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
@@ -2569,248 +2941,1032 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>281</v>
+      </c>
+      <c r="B51" t="s">
+        <v>282</v>
+      </c>
+      <c r="C51" t="s">
+        <v>277</v>
+      </c>
+      <c r="D51" t="s">
+        <v>283</v>
+      </c>
+      <c r="E51" t="s">
+        <v>200</v>
+      </c>
+      <c r="F51" t="s">
+        <v>201</v>
+      </c>
+      <c r="G51" t="s">
+        <v>197</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="0"/>
+        <v>"Зоомагазин Природа</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B52" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" t="s">
+        <v>277</v>
+      </c>
+      <c r="D52" t="s">
         <v>284</v>
       </c>
-      <c r="B51" t="s">
-        <v>156</v>
-      </c>
-      <c r="C51">
-        <v>350009</v>
-      </c>
-      <c r="D51" t="s">
-        <v>204</v>
-      </c>
-      <c r="E51" t="s">
-        <v>205</v>
-      </c>
-      <c r="F51" t="s">
-        <v>206</v>
-      </c>
-      <c r="G51" t="s">
-        <v>199</v>
-      </c>
-      <c r="H51" t="str">
-        <f t="shared" si="0"/>
-        <v>"Зоомагазин Природа"</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="E52" t="s">
+        <v>158</v>
+      </c>
+      <c r="F52" t="s">
+        <v>159</v>
+      </c>
+      <c r="G52" t="s">
+        <v>197</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="0"/>
+        <v>"Зоомагазин Айболит"</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B53" t="s">
         <v>285</v>
       </c>
-      <c r="B52" t="s">
-        <v>207</v>
-      </c>
-      <c r="C52">
-        <v>350010</v>
-      </c>
-      <c r="D52" t="s">
-        <v>208</v>
-      </c>
-      <c r="E52" t="s">
-        <v>209</v>
-      </c>
-      <c r="F52" t="s">
-        <v>210</v>
-      </c>
-      <c r="G52" t="s">
-        <v>199</v>
-      </c>
-      <c r="H52" t="str">
-        <f t="shared" si="0"/>
-        <v>"Зоомагазин"</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>270</v>
-      </c>
-      <c r="B53" t="s">
-        <v>156</v>
-      </c>
-      <c r="C53">
-        <v>350011</v>
+      <c r="C53" t="s">
+        <v>277</v>
       </c>
       <c r="D53" t="s">
-        <v>157</v>
+        <v>286</v>
       </c>
       <c r="E53" t="s">
-        <v>158</v>
+        <v>287</v>
       </c>
       <c r="F53" t="s">
-        <v>159</v>
+        <v>288</v>
       </c>
       <c r="G53" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="0"/>
-        <v>"Зоомагазин Айболит"</v>
+        <v>"Зоомагазин Четыре Лапы"</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>271</v>
+      <c r="A54" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="B54" t="s">
-        <v>211</v>
-      </c>
-      <c r="C54">
-        <v>350038</v>
+        <v>289</v>
+      </c>
+      <c r="C54" t="s">
+        <v>277</v>
       </c>
       <c r="D54" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="E54" t="s">
-        <v>213</v>
+        <v>291</v>
       </c>
       <c r="F54" t="s">
-        <v>214</v>
+        <v>292</v>
       </c>
       <c r="G54" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="0"/>
-        <v>"Приют Краснодог"</v>
+        <v>"Зоомагазин Бетховен"</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="B55" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C55">
-        <v>350089</v>
+        <v>350038</v>
       </c>
       <c r="D55" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="E55" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="F55" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="G55" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="0"/>
-        <v>"Центр Помощи Животным"</v>
+        <f>""""&amp;A55</f>
+        <v>"Приют Краснодог"</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B56" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C56">
-        <v>350000</v>
+        <v>350089</v>
       </c>
       <c r="D56" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E56" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="F56" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="G56" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="0"/>
-        <v>"Гостиница для животных Кошкин дом"</v>
+        <f>""""&amp;A56</f>
+        <v>"Центр Помощи Животным"</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B57" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C57">
-        <v>353211</v>
+        <v>350000</v>
       </c>
       <c r="D57" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="E57" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="F57" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="G57" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="0"/>
-        <v>"Гостиница для кошек КОТОФЕЙ"</v>
+        <f>""""&amp;A57</f>
+        <v>"Гостиница для животных Кошкин дом"</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B58" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C58">
-        <v>350072</v>
+        <v>353211</v>
       </c>
       <c r="D58" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="E58" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="F58" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="G58" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="0"/>
-        <v>"Тимошка"</v>
+        <f>""""&amp;A58</f>
+        <v>"Гостиница для кошек КОТОФЕЙ"</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B59" t="s">
+        <v>220</v>
+      </c>
+      <c r="C59">
+        <v>350072</v>
+      </c>
+      <c r="D59" t="s">
+        <v>221</v>
+      </c>
+      <c r="E59" t="s">
+        <v>222</v>
+      </c>
+      <c r="F59" t="s">
+        <v>223</v>
+      </c>
+      <c r="G59" t="s">
+        <v>215</v>
+      </c>
+      <c r="H59" t="str">
+        <f>""""&amp;A59</f>
+        <v>"Тимошка"</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>265</v>
+      </c>
+      <c r="B60" t="s">
         <v>156</v>
       </c>
-      <c r="C59">
+      <c r="C60">
         <v>350011</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>157</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E60" t="s">
         <v>158</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F60" t="s">
         <v>159</v>
       </c>
-      <c r="G59" t="s">
-        <v>224</v>
-      </c>
-      <c r="H59" t="str">
-        <f t="shared" si="0"/>
+      <c r="G60" t="s">
+        <v>215</v>
+      </c>
+      <c r="H60" t="str">
+        <f>""""&amp;A60</f>
         <v>"Гостиница для животных Айболит"</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B61" t="s">
+        <v>295</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D61" t="s">
+        <v>318</v>
+      </c>
+      <c r="E61" t="s">
+        <v>319</v>
+      </c>
+      <c r="F61" t="s">
+        <v>320</v>
+      </c>
+      <c r="G61" t="s">
+        <v>321</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" ref="H61:H88" si="1">""""&amp;A61</f>
+        <v>"Кафе Зацепи кофе"</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>382</v>
+      </c>
+      <c r="B62" t="s">
+        <v>296</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D62" t="s">
+        <v>318</v>
+      </c>
+      <c r="E62" t="s">
+        <v>322</v>
+      </c>
+      <c r="F62" t="s">
+        <v>323</v>
+      </c>
+      <c r="G62" t="s">
+        <v>321</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="1"/>
+        <v>"Кафе Зацепи кофе"</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>382</v>
+      </c>
+      <c r="B63" t="s">
+        <v>297</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D63" t="s">
+        <v>324</v>
+      </c>
+      <c r="E63" t="s">
+        <v>325</v>
+      </c>
+      <c r="F63" t="s">
+        <v>326</v>
+      </c>
+      <c r="G63" t="s">
+        <v>321</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="1"/>
+        <v>"Кафе Зацепи кофе"</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>382</v>
+      </c>
+      <c r="B64" t="s">
+        <v>298</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D64" t="s">
+        <v>327</v>
+      </c>
+      <c r="E64" t="s">
+        <v>328</v>
+      </c>
+      <c r="F64" t="s">
+        <v>329</v>
+      </c>
+      <c r="G64" t="s">
+        <v>321</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="1"/>
+        <v>"Кафе Зацепи кофе"</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B65" t="s">
+        <v>299</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D65" t="s">
+        <v>327</v>
+      </c>
+      <c r="E65" t="s">
+        <v>330</v>
+      </c>
+      <c r="F65" t="s">
+        <v>331</v>
+      </c>
+      <c r="G65" t="s">
+        <v>321</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="1"/>
+        <v>"Кафе Зацепи кофе"</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>382</v>
+      </c>
+      <c r="B66" t="s">
+        <v>300</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D66" t="s">
+        <v>324</v>
+      </c>
+      <c r="E66" t="s">
+        <v>332</v>
+      </c>
+      <c r="F66" t="s">
+        <v>333</v>
+      </c>
+      <c r="G66" t="s">
+        <v>321</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="1"/>
+        <v>"Кафе Зацепи кофе"</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>382</v>
+      </c>
+      <c r="B67" t="s">
+        <v>301</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D67" t="s">
+        <v>324</v>
+      </c>
+      <c r="E67" t="s">
+        <v>334</v>
+      </c>
+      <c r="F67" t="s">
+        <v>335</v>
+      </c>
+      <c r="G67" t="s">
+        <v>321</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="1"/>
+        <v>"Кафе Зацепи кофе"</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B68" t="s">
+        <v>302</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D68" t="s">
+        <v>336</v>
+      </c>
+      <c r="E68" t="s">
+        <v>337</v>
+      </c>
+      <c r="F68" t="s">
+        <v>338</v>
+      </c>
+      <c r="G68" t="s">
+        <v>321</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="1"/>
+        <v>"Кафе Библиотека кофе"</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>383</v>
+      </c>
+      <c r="B69" t="s">
+        <v>303</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D69" t="s">
+        <v>336</v>
+      </c>
+      <c r="E69" t="s">
+        <v>339</v>
+      </c>
+      <c r="F69" t="s">
+        <v>340</v>
+      </c>
+      <c r="G69" t="s">
+        <v>321</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="1"/>
+        <v>"Кафе Библиотека кофе"</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>383</v>
+      </c>
+      <c r="B70" t="s">
+        <v>304</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D70" t="s">
+        <v>336</v>
+      </c>
+      <c r="E70" t="s">
+        <v>341</v>
+      </c>
+      <c r="F70" t="s">
+        <v>342</v>
+      </c>
+      <c r="G70" t="s">
+        <v>321</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="1"/>
+        <v>"Кафе Библиотека кофе"</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>383</v>
+      </c>
+      <c r="B71" t="s">
+        <v>305</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D71" t="s">
+        <v>343</v>
+      </c>
+      <c r="E71" t="s">
+        <v>344</v>
+      </c>
+      <c r="F71" t="s">
+        <v>345</v>
+      </c>
+      <c r="G71" t="s">
+        <v>321</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="1"/>
+        <v>"Кафе Библиотека кофе"</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>383</v>
+      </c>
+      <c r="B72" t="s">
+        <v>300</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D72" t="s">
+        <v>336</v>
+      </c>
+      <c r="E72" t="s">
+        <v>346</v>
+      </c>
+      <c r="F72" t="s">
+        <v>347</v>
+      </c>
+      <c r="G72" t="s">
+        <v>321</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="1"/>
+        <v>"Кафе Библиотека кофе"</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>383</v>
+      </c>
+      <c r="B73" t="s">
+        <v>306</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D73" t="s">
+        <v>336</v>
+      </c>
+      <c r="E73" t="s">
+        <v>348</v>
+      </c>
+      <c r="F73" t="s">
+        <v>349</v>
+      </c>
+      <c r="G73" t="s">
+        <v>321</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="1"/>
+        <v>"Кафе Библиотека кофе"</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>307</v>
+      </c>
+      <c r="B74" t="s">
+        <v>308</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D74" t="s">
+        <v>350</v>
+      </c>
+      <c r="E74" t="s">
+        <v>351</v>
+      </c>
+      <c r="F74" t="s">
+        <v>352</v>
+      </c>
+      <c r="G74" t="s">
+        <v>353</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="1"/>
+        <v>"Пиццерия Каморра</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B75" t="s">
+        <v>309</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D75" t="s">
+        <v>354</v>
+      </c>
+      <c r="E75" t="s">
+        <v>355</v>
+      </c>
+      <c r="F75" t="s">
+        <v>356</v>
+      </c>
+      <c r="G75" t="s">
+        <v>321</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="1"/>
+        <v>"Кафе Hrum"</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B76" t="s">
+        <v>310</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D76" t="s">
+        <v>357</v>
+      </c>
+      <c r="E76" t="s">
+        <v>358</v>
+      </c>
+      <c r="F76" t="s">
+        <v>359</v>
+      </c>
+      <c r="G76" t="s">
+        <v>321</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="1"/>
+        <v>"Кафе Hrum"</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B77" t="s">
+        <v>311</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D77" t="s">
+        <v>357</v>
+      </c>
+      <c r="E77" t="s">
+        <v>360</v>
+      </c>
+      <c r="F77" t="s">
+        <v>361</v>
+      </c>
+      <c r="G77" t="s">
+        <v>321</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="1"/>
+        <v>"Кафе Hrum"</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B78" t="s">
+        <v>312</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D78" t="s">
+        <v>362</v>
+      </c>
+      <c r="E78" t="s">
+        <v>363</v>
+      </c>
+      <c r="F78" t="s">
+        <v>364</v>
+      </c>
+      <c r="G78" t="s">
+        <v>321</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="1"/>
+        <v>"Кафе Жаровня"</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B79" t="s">
+        <v>313</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D79" t="s">
+        <v>362</v>
+      </c>
+      <c r="E79" t="s">
+        <v>365</v>
+      </c>
+      <c r="F79" t="s">
+        <v>366</v>
+      </c>
+      <c r="G79" t="s">
+        <v>321</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="1"/>
+        <v>"Кафе Жаровня"</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B80" t="s">
+        <v>314</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D80" t="s">
+        <v>318</v>
+      </c>
+      <c r="E80" t="s">
+        <v>367</v>
+      </c>
+      <c r="F80" t="s">
+        <v>368</v>
+      </c>
+      <c r="G80" t="s">
+        <v>321</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="1"/>
+        <v>"Кафе Tutto gelato"</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B81" t="s">
+        <v>315</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D81" t="s">
+        <v>369</v>
+      </c>
+      <c r="E81" t="s">
+        <v>370</v>
+      </c>
+      <c r="F81" t="s">
+        <v>371</v>
+      </c>
+      <c r="G81" t="s">
+        <v>321</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="1"/>
+        <v>"Кафе Кулинаристика"</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B82" t="s">
+        <v>316</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D82" t="s">
+        <v>372</v>
+      </c>
+      <c r="E82" t="s">
+        <v>373</v>
+      </c>
+      <c r="F82" t="s">
+        <v>374</v>
+      </c>
+      <c r="G82" t="s">
+        <v>321</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="1"/>
+        <v>"Кафе Кулинаристика"</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B83" t="s">
+        <v>317</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D83" t="s">
+        <v>375</v>
+      </c>
+      <c r="E83" t="s">
+        <v>376</v>
+      </c>
+      <c r="F83" t="s">
+        <v>377</v>
+      </c>
+      <c r="G83" t="s">
+        <v>321</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="1"/>
+        <v>"Кафе Past Perfect"</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B84" t="s">
+        <v>314</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D84" t="s">
+        <v>378</v>
+      </c>
+      <c r="E84" t="s">
+        <v>379</v>
+      </c>
+      <c r="F84" t="s">
+        <v>380</v>
+      </c>
+      <c r="G84" t="s">
+        <v>381</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="1"/>
+        <v>"Бар Культура"</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B85" t="s">
+        <v>390</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D85" t="s">
+        <v>318</v>
+      </c>
+      <c r="E85" t="s">
+        <v>394</v>
+      </c>
+      <c r="F85" t="s">
+        <v>395</v>
+      </c>
+      <c r="G85" t="s">
+        <v>396</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="1"/>
+        <v>"Городской сад"</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B86" t="s">
+        <v>391</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D86" t="s">
+        <v>318</v>
+      </c>
+      <c r="E86" t="s">
+        <v>397</v>
+      </c>
+      <c r="F86" t="s">
+        <v>398</v>
+      </c>
+      <c r="G86" t="s">
+        <v>396</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="1"/>
+        <v>"Сквер имени Г.М. Седина"</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B87" t="s">
+        <v>392</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D87" t="s">
+        <v>399</v>
+      </c>
+      <c r="E87" t="s">
+        <v>400</v>
+      </c>
+      <c r="F87" t="s">
+        <v>401</v>
+      </c>
+      <c r="G87" t="s">
+        <v>396</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="1"/>
+        <v>"Чистяковская роща"</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B88" t="s">
+        <v>393</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D88" t="s">
+        <v>318</v>
+      </c>
+      <c r="E88" t="s">
+        <v>402</v>
+      </c>
+      <c r="F88" t="s">
+        <v>403</v>
+      </c>
+      <c r="G88" t="s">
+        <v>396</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="1"/>
+        <v>"Парк Краснодар"</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Информация/all.xlsx
+++ b/Информация/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4540c62fe8c17ce9/Документы/map vs/Информация/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{6A7804C0-82E5-4329-A4CF-0F80F7222BAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{50D1200C-9504-4C03-B23B-D236E35D7AEE}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{6A7804C0-82E5-4329-A4CF-0F80F7222BAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B216F09B-4255-4E65-8FD9-87484BA1E729}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -876,9 +876,6 @@
     <t>8 (861) 203-45-49</t>
   </si>
   <si>
-    <t>Зоомагазин Природа</t>
-  </si>
-  <si>
     <t>ул. Дзержинского, 100</t>
   </si>
   <si>
@@ -954,9 +951,6 @@
     <t>ул. Ставропольская, 224</t>
   </si>
   <si>
-    <t>Пиццерия Каморра</t>
-  </si>
-  <si>
     <t>ул. Красная, 90</t>
   </si>
   <si>
@@ -1255,6 +1249,12 @@
   </si>
   <si>
     <t>Парк Краснодар"</t>
+  </si>
+  <si>
+    <t>Пиццерия Каморра"</t>
+  </si>
+  <si>
+    <t>Зоомагазин Природа"</t>
   </si>
 </sst>
 </file>
@@ -1578,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,7 +1666,7 @@
         <v>11</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H59" si="0">""""&amp;A3</f>
+        <f t="shared" ref="H3:H54" si="0">""""&amp;A3</f>
         <v>"Ветеринарная клиника ВетПомощь"</v>
       </c>
     </row>
@@ -2941,16 +2941,16 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>407</v>
+      </c>
+      <c r="B51" t="s">
         <v>281</v>
-      </c>
-      <c r="B51" t="s">
-        <v>282</v>
       </c>
       <c r="C51" t="s">
         <v>277</v>
       </c>
       <c r="D51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E51" t="s">
         <v>200</v>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="H51" t="str">
         <f t="shared" si="0"/>
-        <v>"Зоомагазин Природа</v>
+        <v>"Зоомагазин Природа"</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2977,7 +2977,7 @@
         <v>277</v>
       </c>
       <c r="D52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E52" t="s">
         <v>158</v>
@@ -2995,22 +2995,22 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C53" t="s">
         <v>277</v>
       </c>
       <c r="D53" t="s">
+        <v>285</v>
+      </c>
+      <c r="E53" t="s">
         <v>286</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>287</v>
-      </c>
-      <c r="F53" t="s">
-        <v>288</v>
       </c>
       <c r="G53" t="s">
         <v>197</v>
@@ -3022,22 +3022,22 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B54" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C54" t="s">
         <v>277</v>
       </c>
       <c r="D54" t="s">
+        <v>289</v>
+      </c>
+      <c r="E54" t="s">
         <v>290</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>291</v>
-      </c>
-      <c r="F54" t="s">
-        <v>292</v>
       </c>
       <c r="G54" t="s">
         <v>197</v>
@@ -3070,7 +3070,7 @@
         <v>206</v>
       </c>
       <c r="H55" t="str">
-        <f>""""&amp;A55</f>
+        <f t="shared" ref="H55:H60" si="1">""""&amp;A55</f>
         <v>"Приют Краснодог"</v>
       </c>
     </row>
@@ -3097,7 +3097,7 @@
         <v>206</v>
       </c>
       <c r="H56" t="str">
-        <f>""""&amp;A56</f>
+        <f t="shared" si="1"/>
         <v>"Центр Помощи Животным"</v>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
         <v>215</v>
       </c>
       <c r="H57" t="str">
-        <f>""""&amp;A57</f>
+        <f t="shared" si="1"/>
         <v>"Гостиница для животных Кошкин дом"</v>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
         <v>215</v>
       </c>
       <c r="H58" t="str">
-        <f>""""&amp;A58</f>
+        <f t="shared" si="1"/>
         <v>"Гостиница для кошек КОТОФЕЙ"</v>
       </c>
     </row>
@@ -3178,7 +3178,7 @@
         <v>215</v>
       </c>
       <c r="H59" t="str">
-        <f>""""&amp;A59</f>
+        <f t="shared" si="1"/>
         <v>"Тимошка"</v>
       </c>
     </row>
@@ -3205,763 +3205,763 @@
         <v>215</v>
       </c>
       <c r="H60" t="str">
-        <f>""""&amp;A60</f>
+        <f t="shared" si="1"/>
         <v>"Гостиница для животных Айболит"</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B61" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D61" t="s">
+        <v>316</v>
+      </c>
+      <c r="E61" t="s">
+        <v>317</v>
+      </c>
+      <c r="F61" t="s">
         <v>318</v>
       </c>
-      <c r="E61" t="s">
+      <c r="G61" t="s">
         <v>319</v>
       </c>
-      <c r="F61" t="s">
-        <v>320</v>
-      </c>
-      <c r="G61" t="s">
-        <v>321</v>
-      </c>
       <c r="H61" t="str">
-        <f t="shared" ref="H61:H88" si="1">""""&amp;A61</f>
+        <f t="shared" ref="H61:H88" si="2">""""&amp;A61</f>
         <v>"Кафе Зацепи кофе"</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B62" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E62" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F62" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G62" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"Кафе Зацепи кофе"</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B63" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D63" t="s">
+        <v>322</v>
+      </c>
+      <c r="E63" t="s">
+        <v>323</v>
+      </c>
+      <c r="F63" t="s">
         <v>324</v>
       </c>
-      <c r="E63" t="s">
-        <v>325</v>
-      </c>
-      <c r="F63" t="s">
-        <v>326</v>
-      </c>
       <c r="G63" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"Кафе Зацепи кофе"</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B64" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D64" t="s">
+        <v>325</v>
+      </c>
+      <c r="E64" t="s">
+        <v>326</v>
+      </c>
+      <c r="F64" t="s">
         <v>327</v>
       </c>
-      <c r="E64" t="s">
-        <v>328</v>
-      </c>
-      <c r="F64" t="s">
-        <v>329</v>
-      </c>
       <c r="G64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"Кафе Зацепи кофе"</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B65" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D65" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E65" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F65" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G65" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"Кафе Зацепи кофе"</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B66" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D66" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E66" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F66" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G66" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"Кафе Зацепи кофе"</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B67" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D67" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E67" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F67" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G67" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"Кафе Зацепи кофе"</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B68" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D68" t="s">
+        <v>334</v>
+      </c>
+      <c r="E68" t="s">
+        <v>335</v>
+      </c>
+      <c r="F68" t="s">
         <v>336</v>
       </c>
-      <c r="E68" t="s">
-        <v>337</v>
-      </c>
-      <c r="F68" t="s">
-        <v>338</v>
-      </c>
       <c r="G68" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"Кафе Библиотека кофе"</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B69" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E69" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F69" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G69" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"Кафе Библиотека кофе"</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B70" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D70" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E70" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F70" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G70" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"Кафе Библиотека кофе"</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B71" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D71" t="s">
+        <v>341</v>
+      </c>
+      <c r="E71" t="s">
+        <v>342</v>
+      </c>
+      <c r="F71" t="s">
         <v>343</v>
       </c>
-      <c r="E71" t="s">
-        <v>344</v>
-      </c>
-      <c r="F71" t="s">
-        <v>345</v>
-      </c>
       <c r="G71" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"Кафе Библиотека кофе"</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B72" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D72" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E72" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F72" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G72" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"Кафе Библиотека кофе"</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B73" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D73" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E73" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F73" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G73" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"Кафе Библиотека кофе"</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>307</v>
+        <v>406</v>
       </c>
       <c r="B74" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D74" t="s">
+        <v>348</v>
+      </c>
+      <c r="E74" t="s">
+        <v>349</v>
+      </c>
+      <c r="F74" t="s">
         <v>350</v>
       </c>
-      <c r="E74" t="s">
+      <c r="G74" t="s">
         <v>351</v>
       </c>
-      <c r="F74" t="s">
-        <v>352</v>
-      </c>
-      <c r="G74" t="s">
-        <v>353</v>
-      </c>
       <c r="H74" t="str">
-        <f t="shared" si="1"/>
-        <v>"Пиццерия Каморра</v>
+        <f t="shared" si="2"/>
+        <v>"Пиццерия Каморра"</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B75" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D75" t="s">
+        <v>352</v>
+      </c>
+      <c r="E75" t="s">
+        <v>353</v>
+      </c>
+      <c r="F75" t="s">
         <v>354</v>
       </c>
-      <c r="E75" t="s">
-        <v>355</v>
-      </c>
-      <c r="F75" t="s">
-        <v>356</v>
-      </c>
       <c r="G75" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"Кафе Hrum"</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B76" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D76" t="s">
+        <v>355</v>
+      </c>
+      <c r="E76" t="s">
+        <v>356</v>
+      </c>
+      <c r="F76" t="s">
         <v>357</v>
       </c>
-      <c r="E76" t="s">
-        <v>358</v>
-      </c>
-      <c r="F76" t="s">
-        <v>359</v>
-      </c>
       <c r="G76" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"Кафе Hrum"</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B77" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D77" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E77" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F77" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G77" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H77" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"Кафе Hrum"</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B78" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D78" t="s">
+        <v>360</v>
+      </c>
+      <c r="E78" t="s">
+        <v>361</v>
+      </c>
+      <c r="F78" t="s">
         <v>362</v>
       </c>
-      <c r="E78" t="s">
-        <v>363</v>
-      </c>
-      <c r="F78" t="s">
-        <v>364</v>
-      </c>
       <c r="G78" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"Кафе Жаровня"</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B79" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D79" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E79" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F79" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G79" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"Кафе Жаровня"</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B80" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D80" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E80" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F80" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G80" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"Кафе Tutto gelato"</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B81" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D81" t="s">
+        <v>367</v>
+      </c>
+      <c r="E81" t="s">
+        <v>368</v>
+      </c>
+      <c r="F81" t="s">
         <v>369</v>
       </c>
-      <c r="E81" t="s">
-        <v>370</v>
-      </c>
-      <c r="F81" t="s">
-        <v>371</v>
-      </c>
       <c r="G81" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"Кафе Кулинаристика"</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B82" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D82" t="s">
+        <v>370</v>
+      </c>
+      <c r="E82" t="s">
+        <v>371</v>
+      </c>
+      <c r="F82" t="s">
         <v>372</v>
       </c>
-      <c r="E82" t="s">
-        <v>373</v>
-      </c>
-      <c r="F82" t="s">
-        <v>374</v>
-      </c>
       <c r="G82" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H82" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"Кафе Кулинаристика"</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B83" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D83" t="s">
+        <v>373</v>
+      </c>
+      <c r="E83" t="s">
+        <v>374</v>
+      </c>
+      <c r="F83" t="s">
         <v>375</v>
       </c>
-      <c r="E83" t="s">
-        <v>376</v>
-      </c>
-      <c r="F83" t="s">
-        <v>377</v>
-      </c>
       <c r="G83" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"Кафе Past Perfect"</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B84" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D84" t="s">
+        <v>376</v>
+      </c>
+      <c r="E84" t="s">
+        <v>377</v>
+      </c>
+      <c r="F84" t="s">
         <v>378</v>
       </c>
-      <c r="E84" t="s">
+      <c r="G84" t="s">
         <v>379</v>
       </c>
-      <c r="F84" t="s">
-        <v>380</v>
-      </c>
-      <c r="G84" t="s">
-        <v>381</v>
-      </c>
       <c r="H84" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"Бар Культура"</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B85" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D85" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E85" t="s">
+        <v>392</v>
+      </c>
+      <c r="F85" t="s">
+        <v>393</v>
+      </c>
+      <c r="G85" t="s">
         <v>394</v>
       </c>
-      <c r="F85" t="s">
-        <v>395</v>
-      </c>
-      <c r="G85" t="s">
-        <v>396</v>
-      </c>
       <c r="H85" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"Городской сад"</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B86" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D86" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E86" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F86" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G86" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"Сквер имени Г.М. Седина"</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B87" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D87" t="s">
+        <v>397</v>
+      </c>
+      <c r="E87" t="s">
+        <v>398</v>
+      </c>
+      <c r="F87" t="s">
         <v>399</v>
       </c>
-      <c r="E87" t="s">
-        <v>400</v>
-      </c>
-      <c r="F87" t="s">
-        <v>401</v>
-      </c>
       <c r="G87" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"Чистяковская роща"</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B88" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D88" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E88" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F88" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G88" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"Парк Краснодар"</v>
       </c>
     </row>
